--- a/giangvien/bangdiem.xlsx
+++ b/giangvien/bangdiem.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Msv</t>
   </si>
@@ -38,19 +38,16 @@
     <t>Điểm TB</t>
   </si>
   <si>
+    <t>quan</t>
+  </si>
+  <si>
+    <t>Lập trình với PHP</t>
+  </si>
+  <si>
     <t>Lê Minh Quân</t>
   </si>
   <si>
     <t>PHP nâng cao</t>
-  </si>
-  <si>
-    <t>quan</t>
-  </si>
-  <si>
-    <t>Lập trình với PHP</t>
-  </si>
-  <si>
-    <t>Quản lý mySQL</t>
   </si>
 </sst>
 </file>
@@ -415,10 +412,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -452,7 +449,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>20212504</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -461,21 +458,21 @@
         <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>8.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>20212504</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -484,62 +481,16 @@
         <v>10</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2">
-        <v>20212504</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2">
-        <v>20212504</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2">
-        <v>7</v>
-      </c>
-      <c r="G5" s="2">
-        <v>7.5</v>
+        <v>8.8</v>
       </c>
     </row>
   </sheetData>

--- a/giangvien/bangdiem.xlsx
+++ b/giangvien/bangdiem.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Msv</t>
   </si>
@@ -38,16 +38,19 @@
     <t>Điểm TB</t>
   </si>
   <si>
+    <t>Lê Minh Quân</t>
+  </si>
+  <si>
+    <t>PHP nâng cao</t>
+  </si>
+  <si>
     <t>quan</t>
   </si>
   <si>
     <t>Lập trình với PHP</t>
   </si>
   <si>
-    <t>Lê Minh Quân</t>
-  </si>
-  <si>
-    <t>PHP nâng cao</t>
+    <t>Xây dựng hệ thống</t>
   </si>
 </sst>
 </file>
@@ -412,10 +415,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -449,7 +452,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>20212504</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -458,21 +461,21 @@
         <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
+        <v>8.8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>20212504</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -481,16 +484,39 @@
         <v>10</v>
       </c>
       <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2">
-        <v>8.8</v>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/giangvien/bangdiem.xlsx
+++ b/giangvien/bangdiem.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Msv</t>
   </si>
@@ -42,15 +42,6 @@
   </si>
   <si>
     <t>PHP nâng cao</t>
-  </si>
-  <si>
-    <t>quan</t>
-  </si>
-  <si>
-    <t>Lập trình với PHP</t>
-  </si>
-  <si>
-    <t>Xây dựng hệ thống</t>
   </si>
 </sst>
 </file>
@@ -415,16 +406,16 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="15.281982" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -471,52 +462,6 @@
       </c>
       <c r="G2" s="2">
         <v>8.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/giangvien/bangdiem.xlsx
+++ b/giangvien/bangdiem.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Msv</t>
   </si>
@@ -42,6 +42,24 @@
   </si>
   <si>
     <t>PHP nâng cao</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>Giáo dục thể chất</t>
+  </si>
+  <si>
+    <t>Bùi Văn Tuấn</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>TMDT</t>
+  </si>
+  <si>
+    <t>Quản lý mySQL</t>
   </si>
 </sst>
 </file>
@@ -406,16 +424,16 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="21.137695" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -462,6 +480,144 @@
       </c>
       <c r="G2" s="2">
         <v>8.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
+        <v>20212501</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
+        <v>20212612</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2">
+        <v>20212612</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2">
+        <v>8.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2">
+        <v>20212612</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2">
+        <v>20212612</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2">
+        <v>8.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2">
+        <v>20212612</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="F8" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>6.66</v>
       </c>
     </row>
   </sheetData>

--- a/giangvien/bangdiem.xlsx
+++ b/giangvien/bangdiem.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Msv</t>
   </si>
@@ -44,22 +44,19 @@
     <t>PHP nâng cao</t>
   </si>
   <si>
-    <t>Nguyễn Văn A</t>
+    <t>Bùi Văn Tuấn</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>TMDT</t>
+  </si>
+  <si>
+    <t>Quản lý mySQL</t>
   </si>
   <si>
     <t>Giáo dục thể chất</t>
-  </si>
-  <si>
-    <t>Bùi Văn Tuấn</t>
-  </si>
-  <si>
-    <t>PHP</t>
-  </si>
-  <si>
-    <t>TMDT</t>
-  </si>
-  <si>
-    <t>Quản lý mySQL</t>
   </si>
 </sst>
 </file>
@@ -424,10 +421,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -484,7 +481,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>20212501</v>
+        <v>20212612</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -493,16 +490,16 @@
         <v>10</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -510,22 +507,22 @@
         <v>20212612</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="2">
-        <v>7.6</v>
+        <v>8.7</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -533,22 +530,22 @@
         <v>20212612</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G5" s="2">
-        <v>8.7</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -556,22 +553,22 @@
         <v>20212612</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G6" s="2">
-        <v>5.6</v>
+        <v>8.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -579,44 +576,21 @@
         <v>20212612</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="E7" s="2">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="F7" s="2">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="G7" s="2">
-        <v>8.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2">
-        <v>20212612</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="E8" s="2">
-        <v>7.8</v>
-      </c>
-      <c r="F8" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="G8" s="2">
         <v>6.66</v>
       </c>
     </row>
